--- a/Resource/data/Rezago educativo.xlsx
+++ b/Resource/data/Rezago educativo.xlsx
@@ -1,42 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosa_magadan\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\KUTLL3T6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22524" windowHeight="3720" activeTab="1"/>
+    <workbookView windowWidth="23175" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gráfMpal" sheetId="2" r:id="rId1"/>
     <sheet name="Mpal" sheetId="1" r:id="rId2"/>
     <sheet name="Estatal" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
+    <t>2020_Población de 15 años y más con educación básica incompleta</t>
+  </si>
+  <si>
     <t>Municipio</t>
   </si>
   <si>
@@ -179,9 +163,6 @@
   </si>
   <si>
     <t>Entidad federativa</t>
-  </si>
-  <si>
-    <t>2020_Población de 15 años y más con educación básica incompleta</t>
   </si>
   <si>
     <t>Ranking estatal</t>
@@ -286,50 +267,199 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +478,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -361,7 +677,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -369,9 +685,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -379,73 +739,316 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
+    <cellStyle name="60% - Accent2" xfId="11" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="14" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="15" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="16" builtinId="31"/>
+    <cellStyle name="Normal 3" xfId="17"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="23" builtinId="23"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Calculation" xfId="25" builtinId="22"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="Moneda" xfId="34" builtinId="4"/>
+    <cellStyle name="Heading 2" xfId="35" builtinId="17"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="CExplanatory Text" xfId="37" builtinId="53"/>
+    <cellStyle name="Currency [0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="39" builtinId="11"/>
+    <cellStyle name="Comma [0]" xfId="40" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
+    <cellStyle name="Title" xfId="42" builtinId="15"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - Accent3" xfId="44" builtinId="39"/>
+    <cellStyle name="Linked Cell" xfId="45" builtinId="24"/>
+    <cellStyle name="Accent4" xfId="46" builtinId="41"/>
+    <cellStyle name="Porcentaje" xfId="47" builtinId="5"/>
+    <cellStyle name="Coma" xfId="48" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -463,7 +1066,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -479,6 +1082,7 @@
               <a:rPr lang="es-MX"/>
               <a:t>Población de 15 años y más con educación básica incompleta</a:t>
             </a:r>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -491,26 +1095,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -556,147 +1140,150 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Mpal!$A$3:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="46"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="0.00">
                   <c:v>Abasolo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00">
                   <c:v>Acámbaro</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00">
                   <c:v>San Miguel de Allende</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00">
                   <c:v>Apaseo el Alto</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="0.00">
                   <c:v>Apaseo el Grande</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="0.00">
                   <c:v>Atarjea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="0.00">
                   <c:v>Celaya</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="0.00">
                   <c:v>Manuel Doblado</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="0.00">
                   <c:v>Comonfort</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="0.00">
                   <c:v>Coroneo</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00">
                   <c:v>Cortazar</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="0.00">
                   <c:v>Cuerámaro</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="0.00">
                   <c:v>Doctor Mora</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="0.00">
                   <c:v>Dolores Hidalgo Cuna de la Independencia Nacional</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="0.00">
                   <c:v>Guanajuato</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="0.00">
                   <c:v>Huanímaro</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="0.00">
                   <c:v>Irapuato</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="0.00">
                   <c:v>Jaral del Progreso</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="0.00">
                   <c:v>Jerécuaro</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="0.00">
                   <c:v>León</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="0.00">
                   <c:v>Moroleón</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="0.00">
                   <c:v>Ocampo</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="0.00">
                   <c:v>Pénjamo</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="0.00">
                   <c:v>Pueblo Nuevo</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="0.00">
                   <c:v>Purísima del Rincón</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="0.00">
                   <c:v>Romita</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="0.00">
                   <c:v>Salamanca</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="0.00">
                   <c:v>Salvatierra</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="0.00">
                   <c:v>San Diego de la Unión</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="0.00">
                   <c:v>San Felipe</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="0.00">
                   <c:v>San Francisco del Rincón</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" c:formatCode="0.00">
                   <c:v>San José Iturbide</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" c:formatCode="0.00">
                   <c:v>San Luis de la Paz</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" c:formatCode="0.00">
                   <c:v>Santa Catarina</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" c:formatCode="0.00">
                   <c:v>Santa Cruz de Juventino Rosas</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" c:formatCode="0.00">
                   <c:v>Santiago Maravatío</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" c:formatCode="0.00">
                   <c:v>Silao</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" c:formatCode="0.00">
                   <c:v>Tarandacuao</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" c:formatCode="0.00">
                   <c:v>Tarimoro</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" c:formatCode="0.00">
                   <c:v>Tierra Blanca</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" c:formatCode="0.00">
                   <c:v>Uriangato</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="41" c:formatCode="0.00">
                   <c:v>Valle de Santiago</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="42" c:formatCode="0.00">
                   <c:v>Victoria</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="43" c:formatCode="0.00">
                   <c:v>Villagrán</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="44" c:formatCode="0.00">
                   <c:v>Xichú</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="45" c:formatCode="0.00">
                   <c:v>Yuriria</c:v>
                 </c:pt>
               </c:strCache>
@@ -705,155 +1292,8 @@
           <c:val>
             <c:numRef>
               <c:f>Mpal!$B$3:$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>63.95919</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.40699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.023209999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.682169999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.570879999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.841650000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.424500000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68.439090000000007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55.298299999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60.155369999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49.441760000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61.231230000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62.063849999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60.89143</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37.725760000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.786359999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43.557089999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52.838870000000007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>66.142600000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.894120000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.938400000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>68.054410000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62.826009999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.947900000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>67.357100000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>64.330659999999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.094079999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>57.903309999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>69.516149999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63.556939999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62.325889999999994</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>46.058389999999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>57.528149999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>62.545349999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>58.927500000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>62.527670000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52.758600000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>58.023490000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>62.343820000000008</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>61.693620000000003</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>62.831099999999992</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>59.924699999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>59.287730000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43.24203</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>69.614019999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>65.568979999999996</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2B9-44DD-879A-6D2058CFDE3C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -893,147 +1333,150 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Mpal!$A$3:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="46"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="0.00">
                   <c:v>Abasolo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00">
                   <c:v>Acámbaro</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00">
                   <c:v>San Miguel de Allende</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00">
                   <c:v>Apaseo el Alto</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="0.00">
                   <c:v>Apaseo el Grande</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="0.00">
                   <c:v>Atarjea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="0.00">
                   <c:v>Celaya</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="0.00">
                   <c:v>Manuel Doblado</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="0.00">
                   <c:v>Comonfort</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="0.00">
                   <c:v>Coroneo</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00">
                   <c:v>Cortazar</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="0.00">
                   <c:v>Cuerámaro</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="0.00">
                   <c:v>Doctor Mora</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="0.00">
                   <c:v>Dolores Hidalgo Cuna de la Independencia Nacional</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="0.00">
                   <c:v>Guanajuato</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="0.00">
                   <c:v>Huanímaro</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="0.00">
                   <c:v>Irapuato</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="0.00">
                   <c:v>Jaral del Progreso</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="0.00">
                   <c:v>Jerécuaro</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="0.00">
                   <c:v>León</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="0.00">
                   <c:v>Moroleón</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="0.00">
                   <c:v>Ocampo</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="0.00">
                   <c:v>Pénjamo</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="0.00">
                   <c:v>Pueblo Nuevo</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="0.00">
                   <c:v>Purísima del Rincón</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="0.00">
                   <c:v>Romita</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="0.00">
                   <c:v>Salamanca</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="0.00">
                   <c:v>Salvatierra</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="0.00">
                   <c:v>San Diego de la Unión</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="0.00">
                   <c:v>San Felipe</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="0.00">
                   <c:v>San Francisco del Rincón</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" c:formatCode="0.00">
                   <c:v>San José Iturbide</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" c:formatCode="0.00">
                   <c:v>San Luis de la Paz</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" c:formatCode="0.00">
                   <c:v>Santa Catarina</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" c:formatCode="0.00">
                   <c:v>Santa Cruz de Juventino Rosas</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" c:formatCode="0.00">
                   <c:v>Santiago Maravatío</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" c:formatCode="0.00">
                   <c:v>Silao</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" c:formatCode="0.00">
                   <c:v>Tarandacuao</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" c:formatCode="0.00">
                   <c:v>Tarimoro</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" c:formatCode="0.00">
                   <c:v>Tierra Blanca</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" c:formatCode="0.00">
                   <c:v>Uriangato</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="41" c:formatCode="0.00">
                   <c:v>Valle de Santiago</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="42" c:formatCode="0.00">
                   <c:v>Victoria</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="43" c:formatCode="0.00">
                   <c:v>Villagrán</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="44" c:formatCode="0.00">
                   <c:v>Xichú</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="45" c:formatCode="0.00">
                   <c:v>Yuriria</c:v>
                 </c:pt>
               </c:strCache>
@@ -1042,155 +1485,8 @@
           <c:val>
             <c:numRef>
               <c:f>Mpal!$C$3:$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>54.462699999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.784800000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.085999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.410400000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.729800000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56.346600000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.461400000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.103000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46.711100000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.882300000000008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41.579100000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52.294700000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48.253700000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53.378599999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.815999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51.922599999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.660999999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42.595799999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56.948100000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35.509599999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.118499999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58.626199999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54.025500000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51.909599999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>59.446899999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>53.2926</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36.902499999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>48.479599999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>59.622100000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52.774100000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54.466099999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37.026399999999995</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>47.960700000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>53.4621</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49.922400000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>53.560399999999994</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42.889500000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>49.809399999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>53.3977</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>51.252900000000004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>55.123599999999996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>52.743399999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47.585100000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>34.224299999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>60.504800000000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>58.253799999999998</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2B9-44DD-879A-6D2058CFDE3C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1230,147 +1526,150 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Mpal!$A$3:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="46"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="0.00">
                   <c:v>Abasolo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00">
                   <c:v>Acámbaro</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00">
                   <c:v>San Miguel de Allende</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00">
                   <c:v>Apaseo el Alto</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="0.00">
                   <c:v>Apaseo el Grande</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="0.00">
                   <c:v>Atarjea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="0.00">
                   <c:v>Celaya</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="0.00">
                   <c:v>Manuel Doblado</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="0.00">
                   <c:v>Comonfort</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="0.00">
                   <c:v>Coroneo</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00">
                   <c:v>Cortazar</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="0.00">
                   <c:v>Cuerámaro</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="0.00">
                   <c:v>Doctor Mora</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="0.00">
                   <c:v>Dolores Hidalgo Cuna de la Independencia Nacional</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="0.00">
                   <c:v>Guanajuato</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="0.00">
                   <c:v>Huanímaro</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="0.00">
                   <c:v>Irapuato</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="0.00">
                   <c:v>Jaral del Progreso</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="0.00">
                   <c:v>Jerécuaro</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="0.00">
                   <c:v>León</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="0.00">
                   <c:v>Moroleón</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="0.00">
                   <c:v>Ocampo</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="0.00">
                   <c:v>Pénjamo</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="0.00">
                   <c:v>Pueblo Nuevo</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="0.00">
                   <c:v>Purísima del Rincón</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="0.00">
                   <c:v>Romita</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="0.00">
                   <c:v>Salamanca</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="0.00">
                   <c:v>Salvatierra</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="0.00">
                   <c:v>San Diego de la Unión</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="0.00">
                   <c:v>San Felipe</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="0.00">
                   <c:v>San Francisco del Rincón</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" c:formatCode="0.00">
                   <c:v>San José Iturbide</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" c:formatCode="0.00">
                   <c:v>San Luis de la Paz</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" c:formatCode="0.00">
                   <c:v>Santa Catarina</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" c:formatCode="0.00">
                   <c:v>Santa Cruz de Juventino Rosas</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" c:formatCode="0.00">
                   <c:v>Santiago Maravatío</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" c:formatCode="0.00">
                   <c:v>Silao</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" c:formatCode="0.00">
                   <c:v>Tarandacuao</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" c:formatCode="0.00">
                   <c:v>Tarimoro</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" c:formatCode="0.00">
                   <c:v>Tierra Blanca</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" c:formatCode="0.00">
                   <c:v>Uriangato</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="41" c:formatCode="0.00">
                   <c:v>Valle de Santiago</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="42" c:formatCode="0.00">
                   <c:v>Victoria</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="43" c:formatCode="0.00">
                   <c:v>Villagrán</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="44" c:formatCode="0.00">
                   <c:v>Xichú</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="45" c:formatCode="0.00">
                   <c:v>Yuriria</c:v>
                 </c:pt>
               </c:strCache>
@@ -1380,154 +1679,149 @@
             <c:numRef>
               <c:f>Mpal!$D$3:$D$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>45.523924000000001</c:v>
+                  <c:v>45.523924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.863475999999999</c:v>
+                  <c:v>37.863476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.680929999999996</c:v>
+                  <c:v>36.68093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.307289999999995</c:v>
+                  <c:v>40.30729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.114975999999999</c:v>
+                  <c:v>31.114976</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.923197999999999</c:v>
+                  <c:v>45.923198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.213290999999998</c:v>
+                  <c:v>24.213291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.852937999999995</c:v>
+                  <c:v>48.852938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.594912999999998</c:v>
+                  <c:v>37.594913</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>41.115288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.765861999999998</c:v>
+                  <c:v>33.765862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.843770999999997</c:v>
+                  <c:v>44.843771</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.363793999999999</c:v>
+                  <c:v>37.363794</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.728515999999999</c:v>
+                  <c:v>42.728516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.772600999999998</c:v>
+                  <c:v>23.772601</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43.149974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.537151999999999</c:v>
+                  <c:v>27.537152</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.647501999999996</c:v>
+                  <c:v>35.647502</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.766140999999998</c:v>
+                  <c:v>46.766141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.718841999999999</c:v>
+                  <c:v>28.718842</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.910824999999996</c:v>
+                  <c:v>41.910825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.559835999999997</c:v>
+                  <c:v>49.559836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.959292999999995</c:v>
+                  <c:v>45.959293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.490780999999998</c:v>
+                  <c:v>44.490781</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.190819999999995</c:v>
+                  <c:v>51.19082</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.613102999999995</c:v>
+                  <c:v>43.613103</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>29.322084</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.958186999999995</c:v>
+                  <c:v>40.958187</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.656821999999998</c:v>
+                  <c:v>49.656822</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>41.295071</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47.039315999999999</c:v>
+                  <c:v>47.039316</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.316777999999999</c:v>
+                  <c:v>27.316778</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.340426000000001</c:v>
+                  <c:v>37.340426</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.177039000000001</c:v>
+                  <c:v>42.177039</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.493282999999998</c:v>
+                  <c:v>41.493283</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46.666666999999997</c:v>
+                  <c:v>46.666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33.781324999999995</c:v>
+                  <c:v>33.781325</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.457940000000001</c:v>
+                  <c:v>41.45794</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44.876950999999998</c:v>
+                  <c:v>44.876951</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>38.097999000000002</c:v>
+                  <c:v>38.097999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46.675461999999996</c:v>
+                  <c:v>46.675462</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.430389999999996</c:v>
+                  <c:v>41.43039</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.372163999999998</c:v>
+                  <c:v>37.372164</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27.761689000000001</c:v>
+                  <c:v>27.761689</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>50.404066999999998</c:v>
+                  <c:v>50.404067</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49.890761999999995</c:v>
+                  <c:v>49.890762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B2B9-44DD-879A-6D2058CFDE3C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1569,7 +1863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1581,7 +1875,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1612850911"/>
@@ -1628,7 +1921,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1640,7 +1933,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1612845503"/>
@@ -1671,7 +1963,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1683,7 +1975,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1711,18 +2002,22 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="es-ES"/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1781,7 +2076,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="es-ES" sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1793,7 +2088,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -1939,116 +2233,110 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>48.053342000000001</c:v>
+                  <c:v>48.053342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.229898999999996</c:v>
+                  <c:v>45.229899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.469836000000001</c:v>
+                  <c:v>42.469836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.266300999999999</c:v>
+                  <c:v>42.266301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.774287999999999</c:v>
+                  <c:v>39.774288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.779730999999998</c:v>
+                  <c:v>36.779731</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.445307999999997</c:v>
+                  <c:v>33.445308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.197479999999999</c:v>
+                  <c:v>32.19748</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31.388005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.810502999999997</c:v>
+                  <c:v>29.810503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.683534999999999</c:v>
+                  <c:v>29.683535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.593035999999998</c:v>
+                  <c:v>29.593036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.400570999999999</c:v>
+                  <c:v>29.400571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.165016999999999</c:v>
+                  <c:v>29.165017</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>29.122373</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.937137999999997</c:v>
+                  <c:v>28.937138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.737288999999997</c:v>
+                  <c:v>28.737289</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.654995999999997</c:v>
+                  <c:v>27.654996</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>27.449949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.409162999999999</c:v>
+                  <c:v>27.409163</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.127120999999999</c:v>
+                  <c:v>27.127121</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>26.864832</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.609836999999999</c:v>
+                  <c:v>25.609837</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.859392999999997</c:v>
+                  <c:v>24.859393</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.620450999999999</c:v>
+                  <c:v>24.620451</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.854994999999999</c:v>
+                  <c:v>23.854995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.526751999999998</c:v>
+                  <c:v>23.526752</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.479358999999999</c:v>
+                  <c:v>23.479359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.427681999999997</c:v>
+                  <c:v>22.427682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.257635000000001</c:v>
+                  <c:v>22.257635</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>21.263403</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.839041999999999</c:v>
+                  <c:v>18.839042</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.528493999999998</c:v>
+                  <c:v>17.528494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BC0-49D6-B90F-71243E73C82C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="b"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2090,7 +2378,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2102,7 +2390,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1050329984"/>
@@ -2149,7 +2436,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2161,7 +2448,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1050326240"/>
@@ -2200,9 +2486,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="es-ES"/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3301,38 +3586,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8642195" cy="6272561"/>
-    <xdr:graphicFrame macro="">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412595</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119411</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDA85A7-9E4F-4B6D-B0E3-DD59CC7FBA42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:ext cx="8641715" cy="6272530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3341,12 +3619,12 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3360,22 +3638,14 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AF4FFB-5515-4D9F-AAB9-2E9A1FCAB000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3352800" y="2724150"/>
+        <a:ext cx="6486525" cy="2809875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3431,7 +3701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3464,26 +3734,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3516,23 +3769,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3674,693 +3910,706 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="10"/>
+    <col min="2" max="3" width="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5583333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="15" hidden="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" ht="15" hidden="1" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>2010</v>
       </c>
       <c r="C2">
         <v>2015</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
         <v>63.95919</v>
       </c>
       <c r="C3">
-        <v>54.462699999999998</v>
-      </c>
-      <c r="D3" s="10">
-        <v>45.523924000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+        <v>54.4627</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45.523924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
         <v>53.40699</v>
       </c>
       <c r="C4">
-        <v>44.784800000000004</v>
-      </c>
-      <c r="D4" s="10">
-        <v>37.863475999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>55.023209999999999</v>
+        <v>44.7848</v>
+      </c>
+      <c r="D4" s="11">
+        <v>37.863476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>55.02321</v>
       </c>
       <c r="C5">
-        <v>45.085999999999999</v>
-      </c>
-      <c r="D5" s="10">
-        <v>36.680929999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>57.682169999999999</v>
+        <v>45.086</v>
+      </c>
+      <c r="D5" s="11">
+        <v>36.68093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>57.68217</v>
       </c>
       <c r="C6">
-        <v>47.410400000000003</v>
-      </c>
-      <c r="D6" s="10">
-        <v>40.307289999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>52.570879999999995</v>
+        <v>47.4104</v>
+      </c>
+      <c r="D6" s="11">
+        <v>40.30729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>52.57088</v>
       </c>
       <c r="C7">
-        <v>42.729800000000004</v>
-      </c>
-      <c r="D7" s="10">
-        <v>31.114975999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>64.841650000000001</v>
+        <v>42.7298</v>
+      </c>
+      <c r="D7" s="11">
+        <v>31.114976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>64.84165</v>
       </c>
       <c r="C8">
-        <v>56.346600000000002</v>
-      </c>
-      <c r="D8" s="10">
-        <v>45.923197999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>37.424500000000002</v>
+        <v>56.3466</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45.923198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>37.4245</v>
       </c>
       <c r="C9">
-        <v>31.461400000000001</v>
-      </c>
-      <c r="D9" s="10">
-        <v>24.213290999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>68.439090000000007</v>
+        <v>31.4614</v>
+      </c>
+      <c r="D9" s="11">
+        <v>24.213291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>68.43909</v>
       </c>
       <c r="C10">
-        <v>58.103000000000002</v>
-      </c>
-      <c r="D10" s="10">
-        <v>48.852937999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>55.298299999999998</v>
+        <v>58.103</v>
+      </c>
+      <c r="D10" s="11">
+        <v>48.852938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>55.2983</v>
       </c>
       <c r="C11">
-        <v>46.711100000000002</v>
-      </c>
-      <c r="D11" s="10">
-        <v>37.594912999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>60.155369999999998</v>
+        <v>46.7111</v>
+      </c>
+      <c r="D11" s="11">
+        <v>37.594913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>60.15537</v>
       </c>
       <c r="C12">
-        <v>53.882300000000008</v>
-      </c>
-      <c r="D12" s="10">
+        <v>53.8823</v>
+      </c>
+      <c r="D12" s="11">
         <v>41.115288</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>49.441760000000002</v>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>49.44176</v>
       </c>
       <c r="C13">
-        <v>41.579100000000004</v>
-      </c>
-      <c r="D13" s="10">
-        <v>33.765861999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>61.231230000000004</v>
+        <v>41.5791</v>
+      </c>
+      <c r="D13" s="11">
+        <v>33.765862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>61.23123</v>
       </c>
       <c r="C14">
-        <v>52.294700000000006</v>
-      </c>
-      <c r="D14" s="10">
-        <v>44.843770999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>62.063849999999995</v>
+        <v>52.2947</v>
+      </c>
+      <c r="D14" s="11">
+        <v>44.843771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>62.06385</v>
       </c>
       <c r="C15">
-        <v>48.253700000000002</v>
-      </c>
-      <c r="D15" s="10">
-        <v>37.363793999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
+        <v>48.2537</v>
+      </c>
+      <c r="D15" s="11">
+        <v>37.363794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
         <v>60.89143</v>
       </c>
       <c r="C16">
-        <v>53.378599999999999</v>
-      </c>
-      <c r="D16" s="10">
-        <v>42.728515999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>37.725760000000001</v>
+        <v>53.3786</v>
+      </c>
+      <c r="D16" s="11">
+        <v>42.728516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>37.72576</v>
       </c>
       <c r="C17">
-        <v>30.815999999999999</v>
-      </c>
-      <c r="D17" s="10">
-        <v>23.772600999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>63.786359999999995</v>
+        <v>30.816</v>
+      </c>
+      <c r="D17" s="11">
+        <v>23.772601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>63.78636</v>
       </c>
       <c r="C18">
-        <v>51.922599999999996</v>
-      </c>
-      <c r="D18" s="10">
+        <v>51.9226</v>
+      </c>
+      <c r="D18" s="11">
         <v>43.149974</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>43.557089999999995</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>43.55709</v>
       </c>
       <c r="C19">
-        <v>34.660999999999994</v>
-      </c>
-      <c r="D19" s="10">
-        <v>27.537151999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>52.838870000000007</v>
+        <v>34.661</v>
+      </c>
+      <c r="D19" s="11">
+        <v>27.537152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>52.83887</v>
       </c>
       <c r="C20">
-        <v>42.595799999999997</v>
-      </c>
-      <c r="D20" s="10">
-        <v>35.647501999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>66.142600000000002</v>
+        <v>42.5958</v>
+      </c>
+      <c r="D20" s="11">
+        <v>35.647502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>66.1426</v>
       </c>
       <c r="C21">
-        <v>56.948100000000004</v>
-      </c>
-      <c r="D21" s="10">
-        <v>46.766140999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>42.894120000000001</v>
+        <v>56.9481</v>
+      </c>
+      <c r="D21" s="11">
+        <v>46.766141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>42.89412</v>
       </c>
       <c r="C22">
-        <v>35.509599999999999</v>
-      </c>
-      <c r="D22" s="10">
-        <v>28.718841999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>55.938400000000001</v>
+        <v>35.5096</v>
+      </c>
+      <c r="D22" s="11">
+        <v>28.718842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>55.9384</v>
       </c>
       <c r="C23">
-        <v>50.118499999999997</v>
-      </c>
-      <c r="D23" s="10">
-        <v>41.910824999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>68.054410000000004</v>
+        <v>50.1185</v>
+      </c>
+      <c r="D23" s="11">
+        <v>41.910825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>68.05441</v>
       </c>
       <c r="C24">
-        <v>58.626199999999997</v>
-      </c>
-      <c r="D24" s="10">
-        <v>49.559835999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>62.826009999999997</v>
+        <v>58.6262</v>
+      </c>
+      <c r="D24" s="11">
+        <v>49.559836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>62.82601</v>
       </c>
       <c r="C25">
-        <v>54.025500000000001</v>
-      </c>
-      <c r="D25" s="10">
-        <v>45.959292999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>63.947900000000004</v>
+        <v>54.0255</v>
+      </c>
+      <c r="D25" s="11">
+        <v>45.959293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>63.9479</v>
       </c>
       <c r="C26">
-        <v>51.909599999999998</v>
-      </c>
-      <c r="D26" s="10">
-        <v>44.490780999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>67.357100000000003</v>
+        <v>51.9096</v>
+      </c>
+      <c r="D26" s="11">
+        <v>44.490781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>67.3571</v>
       </c>
       <c r="C27">
-        <v>59.446899999999999</v>
-      </c>
-      <c r="D27" s="10">
-        <v>51.190819999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>64.330659999999995</v>
+        <v>59.4469</v>
+      </c>
+      <c r="D27" s="11">
+        <v>51.19082</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>64.33066</v>
       </c>
       <c r="C28">
         <v>53.2926</v>
       </c>
-      <c r="D28" s="10">
-        <v>43.613102999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>43.094079999999998</v>
+      <c r="D28" s="11">
+        <v>43.613103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>43.09408</v>
       </c>
       <c r="C29">
-        <v>36.902499999999996</v>
-      </c>
-      <c r="D29" s="10">
+        <v>36.9025</v>
+      </c>
+      <c r="D29" s="11">
         <v>29.322084</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <v>57.903309999999998</v>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>57.90331</v>
       </c>
       <c r="C30">
-        <v>48.479599999999998</v>
-      </c>
-      <c r="D30" s="10">
-        <v>40.958186999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <v>69.516149999999996</v>
+        <v>48.4796</v>
+      </c>
+      <c r="D30" s="11">
+        <v>40.958187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>69.51615</v>
       </c>
       <c r="C31">
-        <v>59.622100000000003</v>
-      </c>
-      <c r="D31" s="10">
-        <v>49.656821999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>63.556939999999997</v>
+        <v>59.6221</v>
+      </c>
+      <c r="D31" s="11">
+        <v>49.656822</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>63.55694</v>
       </c>
       <c r="C32">
-        <v>52.774100000000004</v>
-      </c>
-      <c r="D32" s="10">
+        <v>52.7741</v>
+      </c>
+      <c r="D32" s="11">
         <v>41.295071</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3">
-        <v>62.325889999999994</v>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>62.32589</v>
       </c>
       <c r="C33">
-        <v>54.466099999999997</v>
-      </c>
-      <c r="D33" s="10">
-        <v>47.039315999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3">
-        <v>46.058389999999996</v>
+        <v>54.4661</v>
+      </c>
+      <c r="D33" s="11">
+        <v>47.039316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>46.05839</v>
       </c>
       <c r="C34">
-        <v>37.026399999999995</v>
-      </c>
-      <c r="D34" s="10">
-        <v>27.316777999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3">
-        <v>57.528149999999997</v>
+        <v>37.0264</v>
+      </c>
+      <c r="D34" s="11">
+        <v>27.316778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>57.52815</v>
       </c>
       <c r="C35">
-        <v>47.960700000000003</v>
-      </c>
-      <c r="D35" s="10">
-        <v>37.340426000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3">
-        <v>62.545349999999999</v>
+        <v>47.9607</v>
+      </c>
+      <c r="D35" s="11">
+        <v>37.340426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>62.54535</v>
       </c>
       <c r="C36">
         <v>53.4621</v>
       </c>
-      <c r="D36" s="10">
-        <v>42.177039000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>58.927500000000002</v>
+      <c r="D36" s="11">
+        <v>42.177039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>58.9275</v>
       </c>
       <c r="C37">
-        <v>49.922400000000003</v>
-      </c>
-      <c r="D37" s="10">
-        <v>41.493282999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
-        <v>62.527670000000001</v>
+        <v>49.9224</v>
+      </c>
+      <c r="D37" s="11">
+        <v>41.493283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>62.52767</v>
       </c>
       <c r="C38">
-        <v>53.560399999999994</v>
-      </c>
-      <c r="D38" s="10">
-        <v>46.666666999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3">
-        <v>52.758600000000001</v>
+        <v>53.5604</v>
+      </c>
+      <c r="D38" s="11">
+        <v>46.666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>52.7586</v>
       </c>
       <c r="C39">
-        <v>42.889500000000005</v>
-      </c>
-      <c r="D39" s="10">
-        <v>33.781324999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3">
-        <v>58.023490000000002</v>
+        <v>42.8895</v>
+      </c>
+      <c r="D39" s="11">
+        <v>33.781325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <v>58.02349</v>
       </c>
       <c r="C40">
-        <v>49.809399999999997</v>
-      </c>
-      <c r="D40" s="10">
-        <v>41.457940000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3">
-        <v>62.343820000000008</v>
+        <v>49.8094</v>
+      </c>
+      <c r="D40" s="11">
+        <v>41.45794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10">
+        <v>62.34382</v>
       </c>
       <c r="C41">
         <v>53.3977</v>
       </c>
-      <c r="D41" s="10">
-        <v>44.876950999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3">
-        <v>61.693620000000003</v>
+      <c r="D41" s="11">
+        <v>44.876951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10">
+        <v>61.69362</v>
       </c>
       <c r="C42">
-        <v>51.252900000000004</v>
-      </c>
-      <c r="D42" s="10">
-        <v>38.097999000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3">
-        <v>62.831099999999992</v>
+        <v>51.2529</v>
+      </c>
+      <c r="D42" s="11">
+        <v>38.097999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10">
+        <v>62.8311</v>
       </c>
       <c r="C43">
-        <v>55.123599999999996</v>
-      </c>
-      <c r="D43" s="10">
-        <v>46.675461999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3">
-        <v>59.924699999999994</v>
+        <v>55.1236</v>
+      </c>
+      <c r="D43" s="11">
+        <v>46.675462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10">
+        <v>59.9247</v>
       </c>
       <c r="C44">
-        <v>52.743399999999994</v>
-      </c>
-      <c r="D44" s="10">
-        <v>41.430389999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3">
-        <v>59.287730000000003</v>
+        <v>52.7434</v>
+      </c>
+      <c r="D44" s="11">
+        <v>41.43039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10">
+        <v>59.28773</v>
       </c>
       <c r="C45">
-        <v>47.585100000000004</v>
-      </c>
-      <c r="D45" s="10">
-        <v>37.372163999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3">
+        <v>47.5851</v>
+      </c>
+      <c r="D45" s="11">
+        <v>37.372164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10">
         <v>43.24203</v>
       </c>
       <c r="C46">
-        <v>34.224299999999999</v>
-      </c>
-      <c r="D46" s="10">
-        <v>27.761689000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3">
-        <v>69.614019999999996</v>
+        <v>34.2243</v>
+      </c>
+      <c r="D46" s="11">
+        <v>27.761689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10">
+        <v>69.61402</v>
       </c>
       <c r="C47">
-        <v>60.504800000000003</v>
-      </c>
-      <c r="D47" s="10">
-        <v>50.404066999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3">
-        <v>65.568979999999996</v>
+        <v>60.5048</v>
+      </c>
+      <c r="D47" s="11">
+        <v>50.404067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10">
+        <v>65.56898</v>
       </c>
       <c r="C48">
-        <v>58.253799999999998</v>
-      </c>
-      <c r="D48" s="10">
-        <v>49.890761999999995</v>
+        <v>58.2538</v>
+      </c>
+      <c r="D48" s="11">
+        <v>49.890762</v>
       </c>
     </row>
   </sheetData>
@@ -4368,388 +4617,390 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="97.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" ht="100.5" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8">
-        <v>48.053342000000001</v>
+      <c r="B2" s="4">
+        <v>48.053342</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="8">
-        <v>45.229898999999996</v>
+      <c r="B3" s="4">
+        <v>45.229899</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="8">
-        <v>42.469836000000001</v>
+      <c r="B4" s="4">
+        <v>42.469836</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8">
-        <v>42.266300999999999</v>
+      <c r="B5" s="4">
+        <v>42.266301</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="8">
-        <v>39.774287999999999</v>
+      <c r="B6" s="4">
+        <v>39.774288</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="8">
-        <v>36.779730999999998</v>
+      <c r="B7" s="4">
+        <v>36.779731</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8">
-        <v>33.445307999999997</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>33.445308</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="8">
-        <v>32.197479999999999</v>
+      <c r="B9" s="4">
+        <v>32.19748</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>31.388005</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="8">
-        <v>29.810502999999997</v>
+      <c r="B11" s="4">
+        <v>29.810503</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="8">
-        <v>29.683534999999999</v>
+      <c r="B12" s="4">
+        <v>29.683535</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="8">
-        <v>29.593035999999998</v>
+      <c r="B13" s="4">
+        <v>29.593036</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="8">
-        <v>29.400570999999999</v>
+      <c r="B14" s="4">
+        <v>29.400571</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="8">
-        <v>29.165016999999999</v>
+      <c r="B15" s="4">
+        <v>29.165017</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>29.122373</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="8">
-        <v>28.937137999999997</v>
+      <c r="B17" s="4">
+        <v>28.937138</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="8">
-        <v>28.737288999999997</v>
+      <c r="B18" s="4">
+        <v>28.737289</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="8">
-        <v>27.654995999999997</v>
+      <c r="B19" s="4">
+        <v>27.654996</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="4">
         <v>27.449949</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="8">
-        <v>27.409162999999999</v>
+      <c r="B21" s="4">
+        <v>27.409163</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="8">
-        <v>27.127120999999999</v>
+      <c r="B22" s="4">
+        <v>27.127121</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="4">
         <v>26.864832</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="8">
-        <v>25.609836999999999</v>
+      <c r="B24" s="4">
+        <v>25.609837</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="8">
-        <v>24.859392999999997</v>
+      <c r="B25" s="4">
+        <v>24.859393</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8">
-        <v>24.620450999999999</v>
+      <c r="B26" s="4">
+        <v>24.620451</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="8">
-        <v>23.854994999999999</v>
+      <c r="B27" s="4">
+        <v>23.854995</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="8">
-        <v>23.526751999999998</v>
+      <c r="B28" s="4">
+        <v>23.526752</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="8">
-        <v>23.479358999999999</v>
+      <c r="B29" s="4">
+        <v>23.479359</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="8">
-        <v>22.427681999999997</v>
+      <c r="B30" s="4">
+        <v>22.427682</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="8">
-        <v>22.257635000000001</v>
+      <c r="B31" s="4">
+        <v>22.257635</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <v>21.263403</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="8">
-        <v>18.839041999999999</v>
+      <c r="B33" s="4">
+        <v>18.839042</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8">
-        <v>17.528493999999998</v>
+      <c r="B34" s="4">
+        <v>17.528494</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4757,6 +5008,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>